--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.270062</v>
+        <v>42.675953</v>
       </c>
       <c r="H2">
-        <v>96.81018599999999</v>
+        <v>128.027859</v>
       </c>
       <c r="I2">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314253</v>
       </c>
       <c r="J2">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314252</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N2">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q2">
-        <v>18.88112722270133</v>
+        <v>1.163061972426667</v>
       </c>
       <c r="R2">
-        <v>169.930145004312</v>
+        <v>10.46755775184</v>
       </c>
       <c r="S2">
-        <v>0.01129673951112956</v>
+        <v>0.0006468126601833956</v>
       </c>
       <c r="T2">
-        <v>0.01129673951112956</v>
+        <v>0.0006468126601833954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.270062</v>
+        <v>42.675953</v>
       </c>
       <c r="H3">
-        <v>96.81018599999999</v>
+        <v>128.027859</v>
       </c>
       <c r="I3">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314253</v>
       </c>
       <c r="J3">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314252</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N3">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O3">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P3">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q3">
-        <v>1482.206415061592</v>
+        <v>1639.446494656198</v>
       </c>
       <c r="R3">
-        <v>13339.85773555433</v>
+        <v>14755.01845190578</v>
       </c>
       <c r="S3">
-        <v>0.8868167443172601</v>
+        <v>0.9117439771712419</v>
       </c>
       <c r="T3">
-        <v>0.88681674431726</v>
+        <v>0.9117439771712418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>4.589234</v>
       </c>
       <c r="I4">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803058</v>
       </c>
       <c r="J4">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803057</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N4">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q4">
-        <v>0.8950495251475559</v>
+        <v>0.04169064131555556</v>
       </c>
       <c r="R4">
-        <v>8.055445726328001</v>
+        <v>0.37521577184</v>
       </c>
       <c r="S4">
-        <v>0.0005355157674588</v>
+        <v>2.318538070486741E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005355157674587999</v>
+        <v>2.31853807048674E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>4.589234</v>
       </c>
       <c r="I5">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803058</v>
       </c>
       <c r="J5">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N5">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O5">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P5">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q5">
-        <v>70.26318568398135</v>
+        <v>58.76692505228133</v>
       </c>
       <c r="R5">
-        <v>632.3686711558321</v>
+        <v>528.902325470532</v>
       </c>
       <c r="S5">
-        <v>0.04203906348026309</v>
+        <v>0.03268199977732571</v>
       </c>
       <c r="T5">
-        <v>0.04203906348026309</v>
+        <v>0.03268199977732571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.308728</v>
+        <v>0.9319226666666666</v>
       </c>
       <c r="H6">
-        <v>0.926184</v>
+        <v>2.795768</v>
       </c>
       <c r="I6">
-        <v>0.008592260517980135</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="J6">
-        <v>0.008592260517980135</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N6">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q6">
-        <v>0.1806359295253334</v>
+        <v>0.02539799907555555</v>
       </c>
       <c r="R6">
-        <v>1.625723365728</v>
+        <v>0.22858199168</v>
       </c>
       <c r="S6">
-        <v>0.0001080760178208523</v>
+        <v>1.412456750788601E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001080760178208523</v>
+        <v>1.412456750788601E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.308728</v>
+        <v>0.9319226666666666</v>
       </c>
       <c r="H7">
-        <v>0.926184</v>
+        <v>2.795768</v>
       </c>
       <c r="I7">
-        <v>0.008592260517980135</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="J7">
-        <v>0.008592260517980135</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N7">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O7">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P7">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q7">
-        <v>14.180283326048</v>
+        <v>35.80089586182932</v>
       </c>
       <c r="R7">
-        <v>127.622549934432</v>
+        <v>322.208062756464</v>
       </c>
       <c r="S7">
-        <v>0.008484184500159284</v>
+        <v>0.01990992160204826</v>
       </c>
       <c r="T7">
-        <v>0.008484184500159283</v>
+        <v>0.01990992160204826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.822405666666667</v>
+        <v>1.636145333333333</v>
       </c>
       <c r="H8">
-        <v>5.467217</v>
+        <v>4.908436</v>
       </c>
       <c r="I8">
-        <v>0.05071967640590833</v>
+        <v>0.03497997884098805</v>
       </c>
       <c r="J8">
-        <v>0.05071967640590833</v>
+        <v>0.03497997884098804</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N8">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P8">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q8">
-        <v>1.066284695818222</v>
+        <v>0.04459041415111111</v>
       </c>
       <c r="R8">
-        <v>9.596562262364001</v>
+        <v>0.40131372736</v>
       </c>
       <c r="S8">
-        <v>0.0006379672310496257</v>
+        <v>2.479802889228934E-05</v>
       </c>
       <c r="T8">
-        <v>0.0006379672310496256</v>
+        <v>2.479802889228933E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.822405666666667</v>
+        <v>1.636145333333333</v>
       </c>
       <c r="H9">
-        <v>5.467217</v>
+        <v>4.908436</v>
       </c>
       <c r="I9">
-        <v>0.05071967640590833</v>
+        <v>0.03497997884098805</v>
       </c>
       <c r="J9">
-        <v>0.05071967640590833</v>
+        <v>0.03497997884098804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N9">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O9">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P9">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q9">
-        <v>83.70549055585734</v>
+        <v>62.85443072545866</v>
       </c>
       <c r="R9">
-        <v>753.349415002716</v>
+        <v>565.689876529128</v>
       </c>
       <c r="S9">
-        <v>0.05008170917485871</v>
+        <v>0.03495518081209576</v>
       </c>
       <c r="T9">
-        <v>0.0500817091748587</v>
+        <v>0.03495518081209575</v>
       </c>
     </row>
   </sheetData>
